--- a/Lab4/4A_tabela.xlsx
+++ b/Lab4/4A_tabela.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Q(n)</t>
-  </si>
-  <si>
-    <t>Q(n+1)</t>
   </si>
   <si>
     <t>Q(n-1)</t>
@@ -414,34 +411,34 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -455,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -464,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -484,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -529,17 +526,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
